--- a/schedules/schedule_subjects-grouped.xlsx
+++ b/schedules/schedule_subjects-grouped.xlsx
@@ -1075,7 +1075,7 @@
       </c>
       <c r="I4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J4" s="13" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="N6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O6" s="13" t="inlineStr">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="X7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y7" s="15" t="inlineStr">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="S8" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T8" s="15" t="inlineStr">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="N9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O9" s="15" t="inlineStr">
@@ -2128,7 +2128,7 @@
       </c>
       <c r="D14" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E14" s="15" t="inlineStr">
@@ -2251,7 +2251,7 @@
       </c>
       <c r="D15" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E15" s="15" t="inlineStr">
@@ -2274,7 +2274,7 @@
       </c>
       <c r="I15" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J15" s="15" t="inlineStr">
@@ -2320,7 +2320,7 @@
       </c>
       <c r="S15" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T15" s="15" t="inlineStr">
@@ -2516,7 +2516,7 @@
       </c>
       <c r="D18" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E18" s="13" t="inlineStr">
@@ -2585,7 +2585,7 @@
       </c>
       <c r="S18" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T18" s="13" t="inlineStr">
@@ -2639,7 +2639,7 @@
       </c>
       <c r="D19" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E19" s="13" t="inlineStr">
@@ -2685,7 +2685,7 @@
       </c>
       <c r="N19" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O19" s="13" t="inlineStr">
@@ -2838,7 +2838,7 @@
       </c>
       <c r="X20" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y20" s="13" t="inlineStr">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="S22" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T22" s="15" t="inlineStr">
@@ -3050,7 +3050,7 @@
       </c>
       <c r="X22" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y22" s="15" t="inlineStr">
@@ -3346,7 +3346,7 @@
       </c>
       <c r="D26" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E26" s="13" t="inlineStr">
@@ -3507,7 +3507,7 @@
       </c>
       <c r="X27" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y27" s="13" t="inlineStr">
@@ -3729,7 +3729,7 @@
       </c>
       <c r="S30" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T30" s="15" t="inlineStr">
@@ -3767,7 +3767,7 @@
       </c>
       <c r="D31" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E31" s="13" t="inlineStr">
@@ -3889,7 +3889,7 @@
       </c>
       <c r="D33" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E33" s="17" t="inlineStr">
@@ -4601,7 +4601,7 @@
       </c>
       <c r="D4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" s="13" t="inlineStr">
@@ -4624,7 +4624,7 @@
       </c>
       <c r="I4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J4" s="13" t="inlineStr">
@@ -4647,7 +4647,7 @@
       </c>
       <c r="N4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O4" s="13" t="inlineStr">
@@ -4705,7 +4705,7 @@
       </c>
       <c r="S5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T5" s="15" t="inlineStr">
@@ -4788,7 +4788,7 @@
       </c>
       <c r="N7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O7" s="15" t="inlineStr">
@@ -4816,7 +4816,7 @@
       </c>
       <c r="X7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y7" s="15" t="inlineStr">
@@ -4869,7 +4869,7 @@
       </c>
       <c r="X8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y8" s="13" t="inlineStr">
@@ -4912,7 +4912,7 @@
       </c>
       <c r="N9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O9" s="15" t="inlineStr">
@@ -4940,7 +4940,7 @@
       </c>
       <c r="X9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y9" s="15" t="inlineStr">
@@ -4983,7 +4983,7 @@
       </c>
       <c r="N10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O10" s="13" t="inlineStr">
@@ -5006,7 +5006,7 @@
       </c>
       <c r="S10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T10" s="13" t="inlineStr">
@@ -5029,7 +5029,7 @@
       </c>
       <c r="X10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y10" s="13" t="inlineStr">
@@ -5072,7 +5072,7 @@
       </c>
       <c r="N11" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O11" s="17" t="inlineStr">
@@ -5095,7 +5095,7 @@
       </c>
       <c r="S11" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T11" s="17" t="inlineStr">
@@ -5438,7 +5438,7 @@
       </c>
       <c r="S4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T4" s="13" t="inlineStr">
@@ -5461,7 +5461,7 @@
       </c>
       <c r="X4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y4" s="13" t="inlineStr">
@@ -5502,7 +5502,7 @@
       </c>
       <c r="N5" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O5" s="13" t="inlineStr">
@@ -5555,7 +5555,7 @@
       </c>
       <c r="N6" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O6" s="15" t="inlineStr">
@@ -5578,7 +5578,7 @@
       </c>
       <c r="S6" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T6" s="15" t="inlineStr">
@@ -5639,7 +5639,7 @@
       </c>
       <c r="I7" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J7" s="13" t="inlineStr">
@@ -5708,7 +5708,7 @@
       </c>
       <c r="X7" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y7" s="13" t="inlineStr">
@@ -5759,7 +5759,7 @@
       </c>
       <c r="X8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y8" s="13" t="inlineStr">
@@ -5792,7 +5792,7 @@
       </c>
       <c r="D9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E9" s="15" t="inlineStr">
@@ -5815,7 +5815,7 @@
       </c>
       <c r="I9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J9" s="15" t="inlineStr">
@@ -5838,7 +5838,7 @@
       </c>
       <c r="N9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O9" s="15" t="inlineStr">
@@ -5861,7 +5861,7 @@
       </c>
       <c r="S9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T9" s="15" t="inlineStr">
@@ -5884,7 +5884,7 @@
       </c>
       <c r="X9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y9" s="15" t="inlineStr">
@@ -5917,7 +5917,7 @@
       </c>
       <c r="D10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E10" s="13" t="inlineStr">
@@ -5940,7 +5940,7 @@
       </c>
       <c r="I10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J10" s="13" t="inlineStr">
@@ -5963,7 +5963,7 @@
       </c>
       <c r="N10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O10" s="13" t="inlineStr">
@@ -5986,7 +5986,7 @@
       </c>
       <c r="S10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T10" s="13" t="inlineStr">
@@ -6009,7 +6009,7 @@
       </c>
       <c r="X10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y10" s="13" t="inlineStr">
@@ -6047,7 +6047,7 @@
       </c>
       <c r="I11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J11" s="15" t="inlineStr">
@@ -6070,7 +6070,7 @@
       </c>
       <c r="N11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O11" s="15" t="inlineStr">
@@ -6093,7 +6093,7 @@
       </c>
       <c r="S11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T11" s="15" t="inlineStr">
@@ -6131,7 +6131,7 @@
       </c>
       <c r="D12" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E12" s="13" t="inlineStr">
@@ -6177,7 +6177,7 @@
       </c>
       <c r="N12" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O12" s="13" t="inlineStr">
@@ -6200,7 +6200,7 @@
       </c>
       <c r="S12" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T12" s="13" t="inlineStr">
@@ -6251,7 +6251,7 @@
       </c>
       <c r="S13" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T13" s="13" t="inlineStr">
@@ -6289,7 +6289,7 @@
       </c>
       <c r="D14" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E14" s="15" t="inlineStr">
@@ -6312,7 +6312,7 @@
       </c>
       <c r="I14" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J14" s="15" t="inlineStr">
@@ -6335,7 +6335,7 @@
       </c>
       <c r="N14" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O14" s="15" t="inlineStr">
@@ -6378,7 +6378,7 @@
       </c>
       <c r="D15" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E15" s="13" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="N15" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O15" s="13" t="inlineStr">
@@ -6447,7 +6447,7 @@
       </c>
       <c r="S15" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T15" s="13" t="inlineStr">
@@ -6495,7 +6495,7 @@
       </c>
       <c r="N16" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O16" s="17" t="inlineStr">
@@ -6893,7 +6893,7 @@
       </c>
       <c r="N6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O6" s="13" t="inlineStr">
@@ -6936,7 +6936,7 @@
       </c>
       <c r="D7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" s="15" t="inlineStr">
@@ -6994,7 +6994,7 @@
       </c>
       <c r="I8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J8" s="13" t="inlineStr">
@@ -7087,7 +7087,7 @@
       </c>
       <c r="N10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O10" s="13" t="inlineStr">
@@ -7130,7 +7130,7 @@
       </c>
       <c r="D11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E11" s="15" t="inlineStr">
@@ -7158,7 +7158,7 @@
       </c>
       <c r="N11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O11" s="15" t="inlineStr">
@@ -7181,7 +7181,7 @@
       </c>
       <c r="S11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T11" s="15" t="inlineStr">
@@ -7229,7 +7229,7 @@
       </c>
       <c r="N12" s="20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O12" s="20" t="inlineStr">
@@ -7919,7 +7919,7 @@
       </c>
       <c r="S4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T4" s="13" t="inlineStr">
@@ -7942,7 +7942,7 @@
       </c>
       <c r="X4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y4" s="13" t="inlineStr">
@@ -7993,7 +7993,7 @@
       </c>
       <c r="X5" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y5" s="13" t="inlineStr">
@@ -8031,7 +8031,7 @@
       </c>
       <c r="I6" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J6" s="15" t="inlineStr">
@@ -8059,7 +8059,7 @@
       </c>
       <c r="S6" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T6" s="15" t="inlineStr">
@@ -8110,7 +8110,7 @@
       </c>
       <c r="S7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T7" s="15" t="inlineStr">
@@ -8148,7 +8148,7 @@
       </c>
       <c r="D8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" s="13" t="inlineStr">
@@ -8181,7 +8181,7 @@
       </c>
       <c r="S8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T8" s="13" t="inlineStr">
@@ -8204,7 +8204,7 @@
       </c>
       <c r="X8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y8" s="13" t="inlineStr">
@@ -8235,7 +8235,7 @@
       </c>
       <c r="D9" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E9" s="13" t="inlineStr">
@@ -8273,7 +8273,7 @@
       </c>
       <c r="X9" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y9" s="13" t="inlineStr">
@@ -8324,7 +8324,7 @@
       </c>
       <c r="X10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y10" s="13" t="inlineStr">
@@ -8377,7 +8377,7 @@
       </c>
       <c r="X11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y11" s="15" t="inlineStr">
@@ -8428,7 +8428,7 @@
       </c>
       <c r="X12" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y12" s="15" t="inlineStr">
@@ -8461,7 +8461,7 @@
       </c>
       <c r="D13" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E13" s="13" t="inlineStr">
@@ -8484,7 +8484,7 @@
       </c>
       <c r="I13" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J13" s="13" t="inlineStr">
@@ -8512,7 +8512,7 @@
       </c>
       <c r="S13" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T13" s="13" t="inlineStr">
@@ -8548,7 +8548,7 @@
       </c>
       <c r="D14" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E14" s="13" t="inlineStr">
@@ -8606,7 +8606,7 @@
       </c>
       <c r="I15" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J15" s="15" t="inlineStr">
@@ -8629,7 +8629,7 @@
       </c>
       <c r="N15" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O15" s="15" t="inlineStr">
@@ -8657,7 +8657,7 @@
       </c>
       <c r="X15" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y15" s="15" t="inlineStr">
@@ -8698,7 +8698,7 @@
       </c>
       <c r="N16" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O16" s="15" t="inlineStr">
@@ -8741,7 +8741,7 @@
       </c>
       <c r="D17" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E17" s="13" t="inlineStr">
@@ -8794,7 +8794,7 @@
       </c>
       <c r="D18" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E18" s="15" t="inlineStr">
@@ -8817,7 +8817,7 @@
       </c>
       <c r="I18" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J18" s="15" t="inlineStr">
@@ -8865,7 +8865,7 @@
       </c>
       <c r="D19" s="20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E19" s="20" t="inlineStr">
@@ -8888,7 +8888,7 @@
       </c>
       <c r="I19" s="20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J19" s="20" t="inlineStr">
@@ -9940,7 +9940,7 @@
       </c>
       <c r="S13" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T13" s="17" t="inlineStr">
@@ -10250,7 +10250,7 @@
       </c>
       <c r="D4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" s="13" t="inlineStr">
@@ -10273,7 +10273,7 @@
       </c>
       <c r="I4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J4" s="13" t="inlineStr">
@@ -10296,7 +10296,7 @@
       </c>
       <c r="N4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O4" s="13" t="inlineStr">
@@ -10319,7 +10319,7 @@
       </c>
       <c r="S4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T4" s="13" t="inlineStr">
@@ -10342,7 +10342,7 @@
       </c>
       <c r="X4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y4" s="13" t="inlineStr">
@@ -10373,7 +10373,7 @@
       </c>
       <c r="D5" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E5" s="13" t="inlineStr">
@@ -10401,7 +10401,7 @@
       </c>
       <c r="N5" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O5" s="13" t="inlineStr">
@@ -10424,7 +10424,7 @@
       </c>
       <c r="S5" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T5" s="13" t="inlineStr">
@@ -10464,7 +10464,7 @@
       </c>
       <c r="D6" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" s="15" t="inlineStr">
@@ -10487,7 +10487,7 @@
       </c>
       <c r="I6" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J6" s="15" t="inlineStr">
@@ -10510,7 +10510,7 @@
       </c>
       <c r="N6" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O6" s="15" t="inlineStr">
@@ -10533,7 +10533,7 @@
       </c>
       <c r="S6" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T6" s="15" t="inlineStr">
@@ -10556,7 +10556,7 @@
       </c>
       <c r="X6" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y6" s="15" t="inlineStr">
@@ -10587,7 +10587,7 @@
       </c>
       <c r="D7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" s="15" t="inlineStr">
@@ -10610,7 +10610,7 @@
       </c>
       <c r="I7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J7" s="15" t="inlineStr">
@@ -10633,7 +10633,7 @@
       </c>
       <c r="N7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O7" s="15" t="inlineStr">
@@ -10656,7 +10656,7 @@
       </c>
       <c r="S7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T7" s="15" t="inlineStr">
@@ -10732,7 +10732,7 @@
       </c>
       <c r="X8" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y8" s="15" t="inlineStr">
@@ -10765,7 +10765,7 @@
       </c>
       <c r="D9" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E9" s="13" t="inlineStr">
@@ -10788,7 +10788,7 @@
       </c>
       <c r="I9" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J9" s="13" t="inlineStr">
@@ -10811,7 +10811,7 @@
       </c>
       <c r="N9" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O9" s="13" t="inlineStr">
@@ -10834,7 +10834,7 @@
       </c>
       <c r="S9" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T9" s="13" t="inlineStr">
@@ -10857,7 +10857,7 @@
       </c>
       <c r="X9" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y9" s="13" t="inlineStr">
@@ -10898,7 +10898,7 @@
       </c>
       <c r="N10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O10" s="13" t="inlineStr">
@@ -10921,7 +10921,7 @@
       </c>
       <c r="S10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T10" s="13" t="inlineStr">
@@ -10944,7 +10944,7 @@
       </c>
       <c r="X10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y10" s="13" t="inlineStr">
@@ -10977,7 +10977,7 @@
       </c>
       <c r="D11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E11" s="15" t="inlineStr">
@@ -11000,7 +11000,7 @@
       </c>
       <c r="I11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J11" s="15" t="inlineStr">
@@ -11023,7 +11023,7 @@
       </c>
       <c r="N11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O11" s="15" t="inlineStr">
@@ -11046,7 +11046,7 @@
       </c>
       <c r="S11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T11" s="15" t="inlineStr">
@@ -11069,7 +11069,7 @@
       </c>
       <c r="X11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y11" s="15" t="inlineStr">
@@ -11100,7 +11100,7 @@
       </c>
       <c r="D12" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E12" s="15" t="inlineStr">
@@ -11123,7 +11123,7 @@
       </c>
       <c r="I12" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J12" s="15" t="inlineStr">
@@ -11174,7 +11174,7 @@
       </c>
       <c r="X12" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y12" s="15" t="inlineStr">
@@ -11220,7 +11220,7 @@
       </c>
       <c r="S13" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T13" s="15" t="inlineStr">
@@ -11258,7 +11258,7 @@
       </c>
       <c r="D14" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E14" s="13" t="inlineStr">
@@ -11281,7 +11281,7 @@
       </c>
       <c r="I14" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J14" s="13" t="inlineStr">
@@ -11304,7 +11304,7 @@
       </c>
       <c r="N14" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O14" s="13" t="inlineStr">
@@ -11327,7 +11327,7 @@
       </c>
       <c r="S14" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T14" s="13" t="inlineStr">
@@ -11350,7 +11350,7 @@
       </c>
       <c r="X14" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y14" s="13" t="inlineStr">
@@ -11386,7 +11386,7 @@
       </c>
       <c r="I15" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J15" s="13" t="inlineStr">
@@ -11414,7 +11414,7 @@
       </c>
       <c r="S15" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T15" s="13" t="inlineStr">
@@ -11452,7 +11452,7 @@
       </c>
       <c r="D16" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E16" s="15" t="inlineStr">
@@ -11475,7 +11475,7 @@
       </c>
       <c r="I16" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J16" s="15" t="inlineStr">
@@ -11498,7 +11498,7 @@
       </c>
       <c r="N16" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O16" s="15" t="inlineStr">
@@ -11521,7 +11521,7 @@
       </c>
       <c r="S16" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T16" s="15" t="inlineStr">
@@ -11544,7 +11544,7 @@
       </c>
       <c r="X16" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y16" s="15" t="inlineStr">
@@ -11575,7 +11575,7 @@
       </c>
       <c r="D17" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E17" s="15" t="inlineStr">
@@ -11598,7 +11598,7 @@
       </c>
       <c r="I17" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J17" s="15" t="inlineStr">
@@ -11626,7 +11626,7 @@
       </c>
       <c r="S17" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T17" s="15" t="inlineStr">
@@ -11664,7 +11664,7 @@
       </c>
       <c r="D18" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E18" s="13" t="inlineStr">
@@ -11687,7 +11687,7 @@
       </c>
       <c r="I18" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J18" s="13" t="inlineStr">
@@ -11710,7 +11710,7 @@
       </c>
       <c r="N18" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O18" s="13" t="inlineStr">
@@ -11733,7 +11733,7 @@
       </c>
       <c r="S18" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T18" s="13" t="inlineStr">
@@ -11756,7 +11756,7 @@
       </c>
       <c r="X18" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y18" s="13" t="inlineStr">
@@ -11787,7 +11787,7 @@
       </c>
       <c r="D19" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E19" s="13" t="inlineStr">
@@ -11838,7 +11838,7 @@
       </c>
       <c r="D20" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E20" s="13" t="inlineStr">
@@ -11891,7 +11891,7 @@
       </c>
       <c r="D21" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E21" s="15" t="inlineStr">
@@ -11914,7 +11914,7 @@
       </c>
       <c r="I21" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J21" s="15" t="inlineStr">
@@ -11967,7 +11967,7 @@
       </c>
       <c r="I22" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J22" s="13" t="inlineStr">
@@ -12022,7 +12022,7 @@
       </c>
       <c r="I23" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J23" s="17" t="inlineStr">
@@ -12590,7 +12590,7 @@
       </c>
       <c r="N9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O9" s="15" t="inlineStr">
@@ -12633,7 +12633,7 @@
       </c>
       <c r="D10" s="20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E10" s="20" t="inlineStr">
@@ -12981,7 +12981,7 @@
       </c>
       <c r="I4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J4" s="13" t="inlineStr">
@@ -13049,7 +13049,7 @@
       </c>
       <c r="X5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y5" s="15" t="inlineStr">
@@ -13558,7 +13558,7 @@
       </c>
       <c r="N7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O7" s="15" t="inlineStr">
@@ -13926,7 +13926,7 @@
       </c>
       <c r="D4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" s="13" t="inlineStr">
@@ -13949,7 +13949,7 @@
       </c>
       <c r="I4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J4" s="13" t="inlineStr">
@@ -13972,7 +13972,7 @@
       </c>
       <c r="N4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O4" s="13" t="inlineStr">
@@ -13995,7 +13995,7 @@
       </c>
       <c r="S4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T4" s="13" t="inlineStr">
@@ -14018,7 +14018,7 @@
       </c>
       <c r="X4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y4" s="13" t="inlineStr">
@@ -14064,7 +14064,7 @@
       </c>
       <c r="S5" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T5" s="13" t="inlineStr">
@@ -14087,7 +14087,7 @@
       </c>
       <c r="X5" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y5" s="13" t="inlineStr">
@@ -14120,7 +14120,7 @@
       </c>
       <c r="D6" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" s="15" t="inlineStr">
@@ -14143,7 +14143,7 @@
       </c>
       <c r="I6" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J6" s="15" t="inlineStr">
@@ -14166,7 +14166,7 @@
       </c>
       <c r="N6" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O6" s="15" t="inlineStr">
@@ -14189,7 +14189,7 @@
       </c>
       <c r="S6" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T6" s="15" t="inlineStr">
@@ -14212,7 +14212,7 @@
       </c>
       <c r="X6" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y6" s="15" t="inlineStr">
@@ -14243,7 +14243,7 @@
       </c>
       <c r="D7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" s="15" t="inlineStr">
@@ -14266,7 +14266,7 @@
       </c>
       <c r="I7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J7" s="15" t="inlineStr">
@@ -14291,7 +14291,7 @@
       </c>
       <c r="N7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O7" s="15" t="inlineStr">
@@ -14314,7 +14314,7 @@
       </c>
       <c r="S7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T7" s="15" t="inlineStr">
@@ -14337,7 +14337,7 @@
       </c>
       <c r="X7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y7" s="15" t="inlineStr">
@@ -14368,7 +14368,7 @@
       </c>
       <c r="D8" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" s="15" t="inlineStr">
@@ -14421,7 +14421,7 @@
       </c>
       <c r="D9" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E9" s="13" t="inlineStr">
@@ -14444,7 +14444,7 @@
       </c>
       <c r="I9" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J9" s="13" t="inlineStr">
@@ -14467,7 +14467,7 @@
       </c>
       <c r="N9" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O9" s="13" t="inlineStr">
@@ -14490,7 +14490,7 @@
       </c>
       <c r="S9" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T9" s="13" t="inlineStr">
@@ -14513,7 +14513,7 @@
       </c>
       <c r="X9" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y9" s="13" t="inlineStr">
@@ -14544,7 +14544,7 @@
       </c>
       <c r="D10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E10" s="13" t="inlineStr">
@@ -14567,7 +14567,7 @@
       </c>
       <c r="I10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J10" s="13" t="inlineStr">
@@ -14597,7 +14597,7 @@
       </c>
       <c r="S10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T10" s="13" t="inlineStr">
@@ -14666,7 +14666,7 @@
       </c>
       <c r="S11" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T11" s="13" t="inlineStr">
@@ -14689,7 +14689,7 @@
       </c>
       <c r="X11" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y11" s="13" t="inlineStr">
@@ -14722,7 +14722,7 @@
       </c>
       <c r="D12" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E12" s="15" t="inlineStr">
@@ -14745,7 +14745,7 @@
       </c>
       <c r="I12" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J12" s="15" t="inlineStr">
@@ -14768,7 +14768,7 @@
       </c>
       <c r="N12" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O12" s="15" t="inlineStr">
@@ -14791,7 +14791,7 @@
       </c>
       <c r="S12" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T12" s="15" t="inlineStr">
@@ -14814,7 +14814,7 @@
       </c>
       <c r="X12" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y12" s="15" t="inlineStr">
@@ -14845,7 +14845,7 @@
       </c>
       <c r="D13" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E13" s="15" t="inlineStr">
@@ -14868,7 +14868,7 @@
       </c>
       <c r="I13" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J13" s="15" t="inlineStr">
@@ -14891,7 +14891,7 @@
       </c>
       <c r="N13" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O13" s="15" t="inlineStr">
@@ -14914,7 +14914,7 @@
       </c>
       <c r="S13" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T13" s="15" t="inlineStr">
@@ -14937,7 +14937,7 @@
       </c>
       <c r="X13" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y13" s="15" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="D14" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E14" s="15" t="inlineStr">
@@ -14991,7 +14991,7 @@
       </c>
       <c r="I14" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J14" s="15" t="inlineStr">
@@ -15019,7 +15019,7 @@
       </c>
       <c r="S14" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T14" s="15" t="inlineStr">
@@ -15057,7 +15057,7 @@
       </c>
       <c r="D15" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E15" s="13" t="inlineStr">
@@ -15080,7 +15080,7 @@
       </c>
       <c r="I15" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J15" s="13" t="inlineStr">
@@ -15103,7 +15103,7 @@
       </c>
       <c r="N15" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O15" s="13" t="inlineStr">
@@ -15126,7 +15126,7 @@
       </c>
       <c r="S15" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T15" s="13" t="inlineStr">
@@ -15149,7 +15149,7 @@
       </c>
       <c r="X15" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y15" s="13" t="inlineStr">
@@ -15180,7 +15180,7 @@
       </c>
       <c r="D16" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E16" s="13" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="N16" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O16" s="13" t="inlineStr">
@@ -15231,7 +15231,7 @@
       </c>
       <c r="S16" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T16" s="13" t="inlineStr">
@@ -15254,7 +15254,7 @@
       </c>
       <c r="X16" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y16" s="13" t="inlineStr">
@@ -15295,7 +15295,7 @@
       </c>
       <c r="N17" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O17" s="13" t="inlineStr">
@@ -15338,7 +15338,7 @@
       </c>
       <c r="D18" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E18" s="15" t="inlineStr">
@@ -15361,7 +15361,7 @@
       </c>
       <c r="I18" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J18" s="15" t="inlineStr">
@@ -15384,7 +15384,7 @@
       </c>
       <c r="N18" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O18" s="15" t="inlineStr">
@@ -15407,7 +15407,7 @@
       </c>
       <c r="S18" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T18" s="15" t="inlineStr">
@@ -15430,7 +15430,7 @@
       </c>
       <c r="X18" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y18" s="15" t="inlineStr">
@@ -15461,7 +15461,7 @@
       </c>
       <c r="D19" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E19" s="15" t="inlineStr">
@@ -15489,7 +15489,7 @@
       </c>
       <c r="N19" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O19" s="15" t="inlineStr">
@@ -15512,7 +15512,7 @@
       </c>
       <c r="S19" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T19" s="15" t="inlineStr">
@@ -15601,7 +15601,7 @@
       </c>
       <c r="D21" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E21" s="13" t="inlineStr">
@@ -15624,7 +15624,7 @@
       </c>
       <c r="I21" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J21" s="13" t="inlineStr">
@@ -15647,7 +15647,7 @@
       </c>
       <c r="N21" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O21" s="13" t="inlineStr">
@@ -15675,7 +15675,7 @@
       </c>
       <c r="X21" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y21" s="13" t="inlineStr">
@@ -15706,7 +15706,7 @@
       </c>
       <c r="D22" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E22" s="13" t="inlineStr">
@@ -15744,7 +15744,7 @@
       </c>
       <c r="X22" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y22" s="13" t="inlineStr">
@@ -15777,7 +15777,7 @@
       </c>
       <c r="D23" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E23" s="15" t="inlineStr">
@@ -15805,7 +15805,7 @@
       </c>
       <c r="N23" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O23" s="15" t="inlineStr">
@@ -15828,7 +15828,7 @@
       </c>
       <c r="S23" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T23" s="15" t="inlineStr">
@@ -15851,7 +15851,7 @@
       </c>
       <c r="X23" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y23" s="15" t="inlineStr">
@@ -15897,7 +15897,7 @@
       </c>
       <c r="S24" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T24" s="15" t="inlineStr">
@@ -15950,7 +15950,7 @@
       </c>
       <c r="S25" s="20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T25" s="20" t="inlineStr">
@@ -17568,7 +17568,7 @@
       </c>
       <c r="S5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T5" s="15" t="inlineStr">
@@ -18099,7 +18099,7 @@
       </c>
       <c r="N6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O6" s="13" t="inlineStr">
@@ -18252,7 +18252,7 @@
       </c>
       <c r="I10" s="20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J10" s="20" t="inlineStr">
@@ -19249,7 +19249,7 @@
       </c>
       <c r="N6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O6" s="13" t="inlineStr">
@@ -19422,7 +19422,7 @@
       </c>
       <c r="I10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J10" s="13" t="inlineStr">
@@ -19450,7 +19450,7 @@
       </c>
       <c r="S10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T10" s="13" t="inlineStr">
@@ -19503,7 +19503,7 @@
       </c>
       <c r="S11" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T11" s="17" t="inlineStr">
@@ -21750,7 +21750,7 @@
       </c>
       <c r="N5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O5" s="15" t="inlineStr">
@@ -21798,7 +21798,7 @@
       </c>
       <c r="I6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J6" s="13" t="inlineStr">
@@ -21826,7 +21826,7 @@
       </c>
       <c r="S6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T6" s="13" t="inlineStr">
@@ -21864,7 +21864,7 @@
       </c>
       <c r="D7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" s="15" t="inlineStr">
@@ -21887,7 +21887,7 @@
       </c>
       <c r="I7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J7" s="15" t="inlineStr">
@@ -21935,7 +21935,7 @@
       </c>
       <c r="D8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" s="13" t="inlineStr">
@@ -21973,7 +21973,7 @@
       </c>
       <c r="X8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y8" s="13" t="inlineStr">
@@ -22006,7 +22006,7 @@
       </c>
       <c r="D9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E9" s="15" t="inlineStr">
@@ -22079,7 +22079,7 @@
       </c>
       <c r="X10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y10" s="13" t="inlineStr">
@@ -22132,7 +22132,7 @@
       </c>
       <c r="X11" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y11" s="17" t="inlineStr">
@@ -22632,7 +22632,7 @@
       </c>
       <c r="X9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y9" s="15" t="inlineStr">
@@ -22703,7 +22703,7 @@
       </c>
       <c r="X10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y10" s="13" t="inlineStr">
@@ -23061,7 +23061,7 @@
       </c>
       <c r="D4" s="20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" s="20" t="inlineStr">
@@ -24061,7 +24061,7 @@
       </c>
       <c r="S7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T7" s="15" t="inlineStr">
@@ -24109,7 +24109,7 @@
       </c>
       <c r="N8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O8" s="13" t="inlineStr">
@@ -24132,7 +24132,7 @@
       </c>
       <c r="S8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T8" s="13" t="inlineStr">
@@ -24215,7 +24215,7 @@
       </c>
       <c r="N10" s="20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O10" s="20" t="inlineStr">
@@ -24600,7 +24600,7 @@
       </c>
       <c r="D6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" s="13" t="inlineStr">
@@ -24711,7 +24711,7 @@
       </c>
       <c r="I8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J8" s="13" t="inlineStr">
@@ -24734,7 +24734,7 @@
       </c>
       <c r="N8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O8" s="13" t="inlineStr">
@@ -25200,7 +25200,7 @@
       </c>
       <c r="N6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O6" s="13" t="inlineStr">
@@ -25253,7 +25253,7 @@
       </c>
       <c r="N7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O7" s="15" t="inlineStr">
@@ -25281,7 +25281,7 @@
       </c>
       <c r="X7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y7" s="15" t="inlineStr">
@@ -25329,7 +25329,7 @@
       </c>
       <c r="S8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T8" s="13" t="inlineStr">
@@ -25412,7 +25412,7 @@
       </c>
       <c r="N10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O10" s="13" t="inlineStr">
@@ -25475,7 +25475,7 @@
       </c>
       <c r="X11" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y11" s="17" t="inlineStr">
@@ -26448,7 +26448,7 @@
       </c>
       <c r="N7" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O7" s="17" t="inlineStr">
@@ -28607,7 +28607,7 @@
       </c>
       <c r="X4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y4" s="13" t="inlineStr">
@@ -28645,7 +28645,7 @@
       </c>
       <c r="I5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J5" s="15" t="inlineStr">
@@ -28668,7 +28668,7 @@
       </c>
       <c r="N5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O5" s="15" t="inlineStr">
@@ -28696,7 +28696,7 @@
       </c>
       <c r="X5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y5" s="15" t="inlineStr">
@@ -28729,7 +28729,7 @@
       </c>
       <c r="D6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" s="13" t="inlineStr">
@@ -28775,7 +28775,7 @@
       </c>
       <c r="N6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O6" s="13" t="inlineStr">
@@ -28803,7 +28803,7 @@
       </c>
       <c r="X6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y6" s="13" t="inlineStr">
@@ -28836,7 +28836,7 @@
       </c>
       <c r="D7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" s="15" t="inlineStr">
@@ -28859,7 +28859,7 @@
       </c>
       <c r="I7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J7" s="15" t="inlineStr">
@@ -28882,7 +28882,7 @@
       </c>
       <c r="N7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O7" s="15" t="inlineStr">
@@ -28905,7 +28905,7 @@
       </c>
       <c r="S7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T7" s="15" t="inlineStr">
@@ -28943,7 +28943,7 @@
       </c>
       <c r="D8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" s="13" t="inlineStr">
@@ -28966,7 +28966,7 @@
       </c>
       <c r="I8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J8" s="13" t="inlineStr">
@@ -29035,7 +29035,7 @@
       </c>
       <c r="X8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y8" s="13" t="inlineStr">
@@ -29068,7 +29068,7 @@
       </c>
       <c r="D9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E9" s="15" t="inlineStr">
@@ -29096,7 +29096,7 @@
       </c>
       <c r="N9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O9" s="15" t="inlineStr">
@@ -29119,7 +29119,7 @@
       </c>
       <c r="S9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T9" s="15" t="inlineStr">
@@ -29142,7 +29142,7 @@
       </c>
       <c r="X9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y9" s="15" t="inlineStr">
@@ -29175,7 +29175,7 @@
       </c>
       <c r="D10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E10" s="13" t="inlineStr">
@@ -29203,7 +29203,7 @@
       </c>
       <c r="N10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O10" s="13" t="inlineStr">
@@ -29249,7 +29249,7 @@
       </c>
       <c r="X10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y10" s="13" t="inlineStr">
@@ -29282,7 +29282,7 @@
       </c>
       <c r="D11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E11" s="15" t="inlineStr">
@@ -29371,7 +29371,7 @@
       </c>
       <c r="D12" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E12" s="13" t="inlineStr">
@@ -29404,7 +29404,7 @@
       </c>
       <c r="S12" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T12" s="13" t="inlineStr">
@@ -29427,7 +29427,7 @@
       </c>
       <c r="X12" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y12" s="13" t="inlineStr">
@@ -29480,7 +29480,7 @@
       </c>
       <c r="X13" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y13" s="17" t="inlineStr">
@@ -36910,7 +36910,7 @@
       </c>
       <c r="I4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J4" s="13" t="inlineStr">
@@ -36938,7 +36938,7 @@
       </c>
       <c r="S4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T4" s="13" t="inlineStr">
@@ -36991,7 +36991,7 @@
       </c>
       <c r="S5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T5" s="15" t="inlineStr">
@@ -37044,7 +37044,7 @@
       </c>
       <c r="S6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T6" s="13" t="inlineStr">
@@ -37087,7 +37087,7 @@
       </c>
       <c r="I7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J7" s="15" t="inlineStr">
@@ -37115,7 +37115,7 @@
       </c>
       <c r="S7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T7" s="15" t="inlineStr">
@@ -37158,7 +37158,7 @@
       </c>
       <c r="I8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J8" s="13" t="inlineStr">
@@ -37186,7 +37186,7 @@
       </c>
       <c r="S8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T8" s="13" t="inlineStr">
@@ -37229,7 +37229,7 @@
       </c>
       <c r="I9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J9" s="15" t="inlineStr">
@@ -37257,7 +37257,7 @@
       </c>
       <c r="S9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T9" s="15" t="inlineStr">
@@ -37300,7 +37300,7 @@
       </c>
       <c r="I10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J10" s="13" t="inlineStr">
@@ -37328,7 +37328,7 @@
       </c>
       <c r="S10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T10" s="13" t="inlineStr">
@@ -37371,7 +37371,7 @@
       </c>
       <c r="I11" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J11" s="17" t="inlineStr">
@@ -40496,7 +40496,7 @@
       </c>
       <c r="D4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" s="13" t="inlineStr">
@@ -40519,7 +40519,7 @@
       </c>
       <c r="I4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J4" s="13" t="inlineStr">
@@ -40547,7 +40547,7 @@
       </c>
       <c r="S4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T4" s="13" t="inlineStr">
@@ -40585,7 +40585,7 @@
       </c>
       <c r="D5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E5" s="15" t="inlineStr">
@@ -40608,7 +40608,7 @@
       </c>
       <c r="I5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J5" s="15" t="inlineStr">
@@ -40636,7 +40636,7 @@
       </c>
       <c r="S5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T5" s="15" t="inlineStr">
@@ -40674,7 +40674,7 @@
       </c>
       <c r="D6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" s="13" t="inlineStr">
@@ -40697,7 +40697,7 @@
       </c>
       <c r="I6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J6" s="13" t="inlineStr">
@@ -40730,7 +40730,7 @@
       </c>
       <c r="X6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y6" s="13" t="inlineStr">
@@ -40768,7 +40768,7 @@
       </c>
       <c r="I7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J7" s="15" t="inlineStr">
@@ -40801,7 +40801,7 @@
       </c>
       <c r="X7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y7" s="15" t="inlineStr">
@@ -40844,7 +40844,7 @@
       </c>
       <c r="N8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O8" s="13" t="inlineStr">
@@ -40867,7 +40867,7 @@
       </c>
       <c r="S8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T8" s="13" t="inlineStr">
@@ -40890,7 +40890,7 @@
       </c>
       <c r="X8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y8" s="13" t="inlineStr">
@@ -40936,7 +40936,7 @@
       </c>
       <c r="S9" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T9" s="13" t="inlineStr">
@@ -40984,7 +40984,7 @@
       </c>
       <c r="N10" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O10" s="15" t="inlineStr">
@@ -41007,7 +41007,7 @@
       </c>
       <c r="S10" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T10" s="15" t="inlineStr">
@@ -41030,7 +41030,7 @@
       </c>
       <c r="X10" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y10" s="15" t="inlineStr">
@@ -41076,7 +41076,7 @@
       </c>
       <c r="S11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T11" s="15" t="inlineStr">
@@ -41119,7 +41119,7 @@
       </c>
       <c r="I12" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J12" s="13" t="inlineStr">
@@ -41142,7 +41142,7 @@
       </c>
       <c r="N12" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O12" s="13" t="inlineStr">
@@ -41165,7 +41165,7 @@
       </c>
       <c r="S12" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T12" s="13" t="inlineStr">
@@ -41188,7 +41188,7 @@
       </c>
       <c r="X12" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y12" s="13" t="inlineStr">
@@ -41234,7 +41234,7 @@
       </c>
       <c r="S13" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T13" s="13" t="inlineStr">
@@ -41257,7 +41257,7 @@
       </c>
       <c r="X13" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y13" s="13" t="inlineStr">
@@ -41303,7 +41303,7 @@
       </c>
       <c r="S14" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T14" s="13" t="inlineStr">
@@ -41346,7 +41346,7 @@
       </c>
       <c r="I15" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J15" s="15" t="inlineStr">
@@ -41369,7 +41369,7 @@
       </c>
       <c r="N15" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O15" s="15" t="inlineStr">
@@ -41392,7 +41392,7 @@
       </c>
       <c r="S15" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T15" s="15" t="inlineStr">
@@ -41415,7 +41415,7 @@
       </c>
       <c r="X15" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y15" s="15" t="inlineStr">
@@ -41461,7 +41461,7 @@
       </c>
       <c r="S16" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T16" s="15" t="inlineStr">
@@ -41484,7 +41484,7 @@
       </c>
       <c r="X16" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y16" s="15" t="inlineStr">
@@ -41535,7 +41535,7 @@
       </c>
       <c r="X17" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y17" s="15" t="inlineStr">
@@ -41586,7 +41586,7 @@
       </c>
       <c r="X18" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y18" s="15" t="inlineStr">
@@ -41624,7 +41624,7 @@
       </c>
       <c r="I19" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J19" s="13" t="inlineStr">
@@ -41647,7 +41647,7 @@
       </c>
       <c r="N19" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O19" s="13" t="inlineStr">
@@ -41670,7 +41670,7 @@
       </c>
       <c r="S19" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T19" s="13" t="inlineStr">
@@ -41693,7 +41693,7 @@
       </c>
       <c r="X19" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y19" s="13" t="inlineStr">
@@ -41744,7 +41744,7 @@
       </c>
       <c r="X20" s="20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y20" s="20" t="inlineStr">
@@ -43433,7 +43433,7 @@
       </c>
       <c r="I8" s="20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J8" s="20" t="inlineStr">
@@ -43753,7 +43753,7 @@
       </c>
       <c r="D4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" s="13" t="inlineStr">
@@ -44074,7 +44074,7 @@
       </c>
       <c r="D7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" s="15" t="inlineStr">
@@ -44207,7 +44207,7 @@
       </c>
       <c r="D8" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" s="15" t="inlineStr">
@@ -44232,7 +44232,7 @@
       </c>
       <c r="I8" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J8" s="15" t="inlineStr">
@@ -44468,7 +44468,7 @@
       </c>
       <c r="D11" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E11" s="13" t="inlineStr">
@@ -44493,7 +44493,7 @@
       </c>
       <c r="I11" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J11" s="13" t="inlineStr">
@@ -44676,7 +44676,7 @@
       </c>
       <c r="S12" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T12" s="13" t="inlineStr">
@@ -44814,7 +44814,7 @@
       </c>
       <c r="I14" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J14" s="15" t="inlineStr">
@@ -45223,7 +45223,7 @@
       </c>
       <c r="D18" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E18" s="13" t="inlineStr">
@@ -45323,7 +45323,7 @@
       </c>
       <c r="X18" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y18" s="13" t="inlineStr">
@@ -45386,7 +45386,7 @@
       </c>
       <c r="N19" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O19" s="13" t="inlineStr">
@@ -45551,7 +45551,7 @@
       </c>
       <c r="X20" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y20" s="15" t="inlineStr">
@@ -45634,7 +45634,7 @@
       </c>
       <c r="N21" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O21" s="15" t="inlineStr">
@@ -45742,7 +45742,7 @@
       </c>
       <c r="I22" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J22" s="15" t="inlineStr">
@@ -46414,7 +46414,7 @@
       </c>
       <c r="D29" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E29" s="13" t="inlineStr">
@@ -47459,7 +47459,7 @@
       </c>
       <c r="I4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J4" s="13" t="inlineStr">
@@ -47482,7 +47482,7 @@
       </c>
       <c r="N4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O4" s="13" t="inlineStr">
@@ -47545,7 +47545,7 @@
       </c>
       <c r="X5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y5" s="15" t="inlineStr">
@@ -47668,7 +47668,7 @@
       </c>
       <c r="X8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y8" s="13" t="inlineStr">
@@ -47721,7 +47721,7 @@
       </c>
       <c r="X9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y9" s="15" t="inlineStr">
@@ -47774,7 +47774,7 @@
       </c>
       <c r="X10" s="20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y10" s="20" t="inlineStr">
@@ -48413,7 +48413,7 @@
       </c>
       <c r="D8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" s="13" t="inlineStr">
@@ -48604,7 +48604,7 @@
       </c>
       <c r="S10" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T10" s="15" t="inlineStr">
@@ -48627,7 +48627,7 @@
       </c>
       <c r="X10" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y10" s="15" t="inlineStr">
@@ -48673,7 +48673,7 @@
       </c>
       <c r="S11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T11" s="15" t="inlineStr">
@@ -48696,7 +48696,7 @@
       </c>
       <c r="X11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y11" s="15" t="inlineStr">
@@ -48729,7 +48729,7 @@
       </c>
       <c r="D12" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E12" s="13" t="inlineStr">
@@ -48912,7 +48912,7 @@
       </c>
       <c r="I14" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J14" s="13" t="inlineStr">
@@ -48940,7 +48940,7 @@
       </c>
       <c r="S14" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T14" s="13" t="inlineStr">
@@ -49141,7 +49141,7 @@
       </c>
       <c r="I19" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J19" s="17" t="inlineStr">
@@ -49727,7 +49727,7 @@
       </c>
       <c r="S11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T11" s="15" t="inlineStr">
@@ -49780,7 +49780,7 @@
       </c>
       <c r="S12" s="20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T12" s="20" t="inlineStr">
@@ -50095,7 +50095,7 @@
       </c>
       <c r="I4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J4" s="13" t="inlineStr">
@@ -50123,7 +50123,7 @@
       </c>
       <c r="S4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T4" s="13" t="inlineStr">
@@ -50166,7 +50166,7 @@
       </c>
       <c r="I5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J5" s="15" t="inlineStr">
@@ -50214,7 +50214,7 @@
       </c>
       <c r="D6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" s="13" t="inlineStr">
@@ -50237,7 +50237,7 @@
       </c>
       <c r="I6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J6" s="13" t="inlineStr">
@@ -50265,7 +50265,7 @@
       </c>
       <c r="S6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T6" s="13" t="inlineStr">
@@ -50303,7 +50303,7 @@
       </c>
       <c r="D7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" s="15" t="inlineStr">
@@ -50341,7 +50341,7 @@
       </c>
       <c r="X7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y7" s="15" t="inlineStr">
@@ -50394,7 +50394,7 @@
       </c>
       <c r="X8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y8" s="13" t="inlineStr">
@@ -50445,7 +50445,7 @@
       </c>
       <c r="X9" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y9" s="13" t="inlineStr">
@@ -50478,7 +50478,7 @@
       </c>
       <c r="D10" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E10" s="15" t="inlineStr">
@@ -50529,7 +50529,7 @@
       </c>
       <c r="D11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E11" s="15" t="inlineStr">
@@ -50592,7 +50592,7 @@
       </c>
       <c r="N12" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O12" s="13" t="inlineStr">
@@ -50615,7 +50615,7 @@
       </c>
       <c r="S12" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T12" s="13" t="inlineStr">
@@ -50653,7 +50653,7 @@
       </c>
       <c r="D13" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E13" s="15" t="inlineStr">
@@ -50676,7 +50676,7 @@
       </c>
       <c r="I13" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J13" s="15" t="inlineStr">
@@ -50704,7 +50704,7 @@
       </c>
       <c r="S13" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T13" s="15" t="inlineStr">
@@ -50740,7 +50740,7 @@
       </c>
       <c r="D14" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E14" s="17" t="inlineStr">
@@ -51768,7 +51768,7 @@
       </c>
       <c r="I4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J4" s="13" t="inlineStr">
@@ -51823,7 +51823,7 @@
       </c>
       <c r="I5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J5" s="15" t="inlineStr">
@@ -51878,7 +51878,7 @@
       </c>
       <c r="I6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J6" s="13" t="inlineStr">
@@ -51983,7 +51983,7 @@
       </c>
       <c r="X8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y8" s="13" t="inlineStr">
@@ -52038,7 +52038,7 @@
       </c>
       <c r="X9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y9" s="15" t="inlineStr">
@@ -52093,7 +52093,7 @@
       </c>
       <c r="X10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y10" s="13" t="inlineStr">
@@ -52148,7 +52148,7 @@
       </c>
       <c r="X11" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y11" s="17" t="inlineStr">
@@ -53620,7 +53620,7 @@
       </c>
       <c r="I9" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J9" s="17" t="inlineStr">
@@ -53653,7 +53653,7 @@
       </c>
       <c r="X9" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y9" s="17" t="inlineStr">
